--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>34.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>34.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>160106</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>南方高增长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.79</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5755</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>519198</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>万家颐和灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -716,15 +796,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>88.23</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.36</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.42</v>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.68</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.36</v>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7573</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.42</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4281</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.529999999999999</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.68</v>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1813,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.36</v>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1851,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.42</v>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1889,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>7.62</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>34.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>011363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>南方兴润价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.92</t>
+          <t>93.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7259</t>
+          <t>4.1231</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>南方绩优成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>52.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>72.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5755</t>
+          <t>2.4315</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -715,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>011364</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>南方兴润价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>19.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0579</t>
+          <t>0.8740</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -753,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>004845</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>南华瑞盈混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>88.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0440</t>
+          <t>0.0817</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +791,226 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004352</t>
+          <t>011410</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>北信瑞丰研究精选股票</t>
+          <t>中信建投量化进取6个月持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0587</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +1045,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -885,36 +1075,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>011363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>南方兴润价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.93</t>
+          <t>123.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8042</t>
+          <t>4.7374</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -923,36 +1113,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009932</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合</t>
+          <t>南方绩优成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.62</t>
+          <t>48.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.47</t>
+          <t>65.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2338</t>
+          <t>2.2913</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -961,36 +1151,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012442</t>
+          <t>011364</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合E</t>
+          <t>南方兴润价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.62</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24.47</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2338</t>
+          <t>0.7573</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -999,36 +1189,150 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>012412</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>汇泉策略优选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>70.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0926</t>
+          <t>0.4281</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2910</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,7 +1689,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1415,36 +1719,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011363</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合A</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>123.05</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.78</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.7374</t>
+          <t>0.8042</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1453,36 +1757,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方绩优成长混合A</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>48.96</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>65.45</t>
+          <t>24.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2913</t>
+          <t>0.2338</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1491,36 +1795,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011364</t>
+          <t>012442</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合C</t>
+          <t>永赢稳健增长一年持有期混合E</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.78</t>
+          <t>24.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7573</t>
+          <t>0.2338</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1529,150 +1833,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012412</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇泉策略优选混合型证券投资基金</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.35</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4281</t>
+          <t>0.0926</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>56.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2910</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006540</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安多策略混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,7 +1897,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1737,36 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011363</t>
+          <t>160106</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合A</t>
+          <t>南方高增长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>85.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.1231</t>
+          <t>0.7259</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1775,36 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方绩优成长混合A</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.29</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.60</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.4315</t>
+          <t>0.5755</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1813,32 +2003,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011364</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方兴润价值一年持有期混合C</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.91</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>89.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8740</t>
+          <t>0.0579</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1851,36 +2041,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004845</t>
+          <t>519198</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南华瑞盈混合A</t>
+          <t>万家颐和灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.91</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.0440</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1889,226 +2079,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011410</t>
+          <t>004352</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信建投量化进取6个月持有期混合A</t>
+          <t>北信瑞丰研究精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0587</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>71.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011411</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信建投量化进取6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.92</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006540</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.60</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004846</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南华瑞盈混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>014521</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>71.74</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2122,128 +2122,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.62</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.529999999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>7.62</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>8.529999999999999</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>9.68</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.36</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -583,6 +600,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9313</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1011,328 +1540,6 @@
       </c>
       <c r="H11" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方兴润价值一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>123.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.7374</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>48.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2913</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011364</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方兴润价值一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7573</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012412</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇泉策略优选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>70.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4281</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>56.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2910</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006540</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安多策略混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1412,21 +1619,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.36</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3806</t>
+          <t>4.7374</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1445,26 +1652,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.48</t>
+          <t>48.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.39</t>
+          <t>65.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6990</t>
+          <t>2.2913</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1483,26 +1690,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.36</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9284</t>
+          <t>0.7573</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1511,36 +1718,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>012412</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>汇泉策略优选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>70.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8516</t>
+          <t>0.4281</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1559,26 +1766,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.62</t>
+          <t>56.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6241</t>
+          <t>0.2910</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1587,36 +1794,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>006540</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>南方绩优成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>65.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1695</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1625,36 +1832,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006540</t>
+          <t>320016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方绩优成长混合C</t>
+          <t>诺安多策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.39</t>
+          <t>80.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1663,6 +1870,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1870,7 +2399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2116,7 +2645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
+++ b/数据整理/stocks/A股/深证主板/002258-利尔化学.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>5.47</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>7.62</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>8.529999999999999</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>9.68</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.36</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4603</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014692</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014691</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中加量化研选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1540,328 +2297,6 @@
       </c>
       <c r="H11" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方兴润价值一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>123.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.7374</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>48.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2913</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011364</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方兴润价值一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>62.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7573</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>012412</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇泉策略优选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>70.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4281</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501062</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方瑞合三年定期开放混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>56.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2910</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006540</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方绩优成长混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320016</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安多策略混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1941,21 +2376,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>65.36</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.3806</t>
+          <t>4.7374</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1974,26 +2409,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>61.48</t>
+          <t>48.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.39</t>
+          <t>65.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6990</t>
+          <t>2.2913</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2012,26 +2447,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.36</t>
+          <t>62.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9284</t>
+          <t>0.7573</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2040,36 +2475,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>012412</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>汇泉策略优选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>70.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8516</t>
+          <t>0.4281</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2088,26 +2523,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.62</t>
+          <t>56.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6241</t>
+          <t>0.2910</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2116,36 +2551,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>006540</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>南方绩优成长混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>65.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1695</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2154,36 +2589,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006540</t>
+          <t>320016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方绩优成长混合C</t>
+          <t>诺安多策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.39</t>
+          <t>80.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2192,6 +2627,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +3156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2645,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
